--- a/Data/test2.xlsx
+++ b/Data/test2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="23040" windowHeight="16680" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="23040" windowHeight="16680" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="stud.info" sheetId="3" r:id="rId1"/>
@@ -56,9 +56,6 @@
     <t>soph</t>
   </si>
   <si>
-    <t>coursegrade</t>
-  </si>
-  <si>
     <t>statementnum</t>
   </si>
   <si>
@@ -168,6 +165,9 @@
   </si>
   <si>
     <t>coursegrade_w17</t>
+  </si>
+  <si>
+    <t>coursegrade_w16</t>
   </si>
 </sst>
 </file>
@@ -560,12 +560,12 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>2016</v>
@@ -576,7 +576,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>2016</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>2016</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>2016</v>
@@ -609,7 +609,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>2016</v>
@@ -620,21 +620,21 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7">
         <v>2015</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8">
         <v>2015</v>
@@ -643,12 +643,12 @@
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9">
         <v>2015</v>
@@ -657,12 +657,12 @@
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10">
         <v>2015</v>
@@ -671,12 +671,12 @@
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11">
         <v>2015</v>
@@ -685,12 +685,12 @@
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12">
         <v>2015</v>
@@ -699,12 +699,12 @@
         <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13">
         <v>2015</v>
@@ -713,12 +713,12 @@
         <v>4</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14">
         <v>2015</v>
@@ -727,12 +727,12 @@
         <v>5</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>2015</v>
@@ -741,12 +741,12 @@
         <v>5</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16">
         <v>2015</v>
@@ -755,12 +755,12 @@
         <v>4</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>2015</v>
@@ -769,12 +769,12 @@
         <v>5</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>2015</v>
@@ -783,12 +783,12 @@
         <v>4</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>2015</v>
@@ -797,12 +797,12 @@
         <v>4</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20">
         <v>2015</v>
@@ -811,12 +811,12 @@
         <v>5</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21">
         <v>2015</v>
@@ -825,7 +825,7 @@
         <v>4</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -854,8 +854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -875,30 +875,30 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>35</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>36</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>37</v>
-      </c>
-      <c r="H1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>92</v>
@@ -924,7 +924,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>56</v>
@@ -950,7 +950,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>47</v>
@@ -976,7 +976,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>21</v>
@@ -1002,7 +1002,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>85</v>
@@ -1035,14 +1035,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="14.44140625" customWidth="1"/>
@@ -1056,24 +1056,24 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
         <v>39</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>40</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>41</v>
-      </c>
-      <c r="F1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2">
         <v>92</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3">
         <v>56</v>
@@ -1113,7 +1113,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4">
         <v>47</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>21</v>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>85</v>
@@ -1173,7 +1173,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7">
         <v>92</v>
@@ -1193,7 +1193,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8">
         <v>56</v>
@@ -1213,7 +1213,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9">
         <v>47</v>
@@ -1233,7 +1233,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>21</v>
@@ -1253,7 +1253,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>85</v>
@@ -1273,7 +1273,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12">
         <v>92</v>
@@ -1293,7 +1293,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>56</v>
@@ -1313,7 +1313,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14">
         <v>47</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>21</v>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>85</v>
@@ -1397,7 +1397,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
@@ -1405,7 +1405,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1416,7 +1416,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1427,7 +1427,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -1438,7 +1438,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -1449,7 +1449,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -1460,7 +1460,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -1504,7 +1504,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -1515,7 +1515,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1526,7 +1526,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -1548,7 +1548,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -1559,7 +1559,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -1570,7 +1570,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17">
         <v>6</v>
@@ -1581,7 +1581,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18">
         <v>7</v>
@@ -1592,7 +1592,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19">
         <v>8</v>
@@ -1603,7 +1603,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20">
         <v>9</v>
@@ -1614,7 +1614,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21">
         <v>10</v>
@@ -1625,7 +1625,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B22">
         <v>11</v>
@@ -1636,7 +1636,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B23">
         <v>12</v>
@@ -1647,7 +1647,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -1658,7 +1658,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -1680,7 +1680,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B27">
         <v>4</v>
@@ -1691,7 +1691,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -1702,7 +1702,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B31">
         <v>4</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B32">
         <v>5</v>
@@ -1746,7 +1746,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B33">
         <v>6</v>
